--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfrsf14-Btla.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfrsf14-Btla.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.593702666666666</v>
+        <v>4.901461666666667</v>
       </c>
       <c r="H2">
-        <v>16.781108</v>
+        <v>14.704385</v>
       </c>
       <c r="I2">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="J2">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.594046</v>
+        <v>0.1247706666666667</v>
       </c>
       <c r="N2">
-        <v>4.782138000000001</v>
+        <v>0.374312</v>
       </c>
       <c r="O2">
-        <v>0.4344737227754238</v>
+        <v>0.08987976235813114</v>
       </c>
       <c r="P2">
-        <v>0.4344737227754238</v>
+        <v>0.08987976235813115</v>
       </c>
       <c r="Q2">
-        <v>8.916619360989335</v>
+        <v>0.6115586397911111</v>
       </c>
       <c r="R2">
-        <v>80.24957424890401</v>
+        <v>5.504027758119999</v>
       </c>
       <c r="S2">
-        <v>0.08107630459739962</v>
+        <v>0.01909430703527628</v>
       </c>
       <c r="T2">
-        <v>0.08107630459739962</v>
+        <v>0.01909430703527629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.593702666666666</v>
+        <v>4.901461666666667</v>
       </c>
       <c r="H3">
-        <v>16.781108</v>
+        <v>14.704385</v>
       </c>
       <c r="I3">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="J3">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.6721</v>
       </c>
       <c r="O3">
-        <v>0.06106260193188952</v>
+        <v>0.1613845890083672</v>
       </c>
       <c r="P3">
-        <v>0.06106260193188953</v>
+        <v>0.1613845890083672</v>
       </c>
       <c r="Q3">
-        <v>1.253175854088889</v>
+        <v>1.098090795388889</v>
       </c>
       <c r="R3">
-        <v>11.2785826868</v>
+        <v>9.8828171585</v>
       </c>
       <c r="S3">
-        <v>0.01139477453806483</v>
+        <v>0.03428499155359484</v>
       </c>
       <c r="T3">
-        <v>0.01139477453806483</v>
+        <v>0.03428499155359485</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.593702666666666</v>
+        <v>4.901461666666667</v>
       </c>
       <c r="H4">
-        <v>16.781108</v>
+        <v>14.704385</v>
       </c>
       <c r="I4">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="J4">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.850833</v>
+        <v>1.039391333333333</v>
       </c>
       <c r="N4">
-        <v>5.552499000000001</v>
+        <v>3.118174</v>
       </c>
       <c r="O4">
-        <v>0.5044636752926867</v>
+        <v>0.7487356486335016</v>
       </c>
       <c r="P4">
-        <v>0.5044636752926867</v>
+        <v>0.7487356486335016</v>
       </c>
       <c r="Q4">
-        <v>10.35300948765467</v>
+        <v>5.094536776998889</v>
       </c>
       <c r="R4">
-        <v>93.17708538889201</v>
+        <v>45.85083099299</v>
       </c>
       <c r="S4">
-        <v>0.09413699483384978</v>
+        <v>0.1590634864642747</v>
       </c>
       <c r="T4">
-        <v>0.09413699483384978</v>
+        <v>0.1590634864642748</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>9.497398</v>
       </c>
       <c r="I5">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="J5">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.594046</v>
+        <v>0.1247706666666667</v>
       </c>
       <c r="N5">
-        <v>4.782138000000001</v>
+        <v>0.374312</v>
       </c>
       <c r="O5">
-        <v>0.4344737227754238</v>
+        <v>0.08987976235813114</v>
       </c>
       <c r="P5">
-        <v>0.4344737227754238</v>
+        <v>0.08987976235813115</v>
       </c>
       <c r="Q5">
-        <v>5.046429764102668</v>
+        <v>0.3949988933528889</v>
       </c>
       <c r="R5">
-        <v>45.41786787692401</v>
+        <v>3.554990040176</v>
       </c>
       <c r="S5">
-        <v>0.04588576231859863</v>
+        <v>0.01233279960013417</v>
       </c>
       <c r="T5">
-        <v>0.04588576231859862</v>
+        <v>0.01233279960013417</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>9.497398</v>
       </c>
       <c r="I6">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="J6">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0.6721</v>
       </c>
       <c r="O6">
-        <v>0.06106260193188952</v>
+        <v>0.1613845890083672</v>
       </c>
       <c r="P6">
-        <v>0.06106260193188953</v>
+        <v>0.1613845890083672</v>
       </c>
       <c r="Q6">
         <v>0.7092445773111112</v>
@@ -821,10 +821,10 @@
         <v>6.383201195800001</v>
       </c>
       <c r="S6">
-        <v>0.006448960873636464</v>
+        <v>0.02214429302627268</v>
       </c>
       <c r="T6">
-        <v>0.006448960873636464</v>
+        <v>0.02214429302627268</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>9.497398</v>
       </c>
       <c r="I7">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="J7">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.850833</v>
+        <v>1.039391333333333</v>
       </c>
       <c r="N7">
-        <v>5.552499000000001</v>
+        <v>3.118174</v>
       </c>
       <c r="O7">
-        <v>0.5044636752926867</v>
+        <v>0.7487356486335016</v>
       </c>
       <c r="P7">
-        <v>0.5044636752926867</v>
+        <v>0.7487356486335016</v>
       </c>
       <c r="Q7">
-        <v>5.859365877511335</v>
+        <v>3.290504390139112</v>
       </c>
       <c r="R7">
-        <v>52.73429289760201</v>
+        <v>29.614539511252</v>
       </c>
       <c r="S7">
-        <v>0.05327756108005594</v>
+        <v>0.1027373289137104</v>
       </c>
       <c r="T7">
-        <v>0.05327756108005594</v>
+        <v>0.1027373289137104</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.014792333333334</v>
+        <v>1.206743666666667</v>
       </c>
       <c r="H8">
-        <v>3.044377</v>
+        <v>3.620231</v>
       </c>
       <c r="I8">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032003</v>
       </c>
       <c r="J8">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032004</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.594046</v>
+        <v>0.1247706666666667</v>
       </c>
       <c r="N8">
-        <v>4.782138000000001</v>
+        <v>0.374312</v>
       </c>
       <c r="O8">
-        <v>0.4344737227754238</v>
+        <v>0.08987976235813114</v>
       </c>
       <c r="P8">
-        <v>0.4344737227754238</v>
+        <v>0.08987976235813115</v>
       </c>
       <c r="Q8">
-        <v>1.617625659780667</v>
+        <v>0.1505662117857778</v>
       </c>
       <c r="R8">
-        <v>14.558630938026</v>
+        <v>1.355095906072</v>
       </c>
       <c r="S8">
-        <v>0.01470861381509002</v>
+        <v>0.004701033212380205</v>
       </c>
       <c r="T8">
-        <v>0.01470861381509002</v>
+        <v>0.004701033212380206</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.014792333333334</v>
+        <v>1.206743666666667</v>
       </c>
       <c r="H9">
-        <v>3.044377</v>
+        <v>3.620231</v>
       </c>
       <c r="I9">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032003</v>
       </c>
       <c r="J9">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032004</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,22 +995,22 @@
         <v>0.6721</v>
       </c>
       <c r="O9">
-        <v>0.06106260193188952</v>
+        <v>0.1613845890083672</v>
       </c>
       <c r="P9">
-        <v>0.06106260193188953</v>
+        <v>0.1613845890083672</v>
       </c>
       <c r="Q9">
-        <v>0.2273473090777778</v>
+        <v>0.2703508061222222</v>
       </c>
       <c r="R9">
-        <v>2.0461257817</v>
+        <v>2.4331572551</v>
       </c>
       <c r="S9">
-        <v>0.002067204949987224</v>
+        <v>0.008440991531237941</v>
       </c>
       <c r="T9">
-        <v>0.002067204949987224</v>
+        <v>0.008440991531237943</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.014792333333334</v>
+        <v>1.206743666666667</v>
       </c>
       <c r="H10">
-        <v>3.044377</v>
+        <v>3.620231</v>
       </c>
       <c r="I10">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032003</v>
       </c>
       <c r="J10">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032004</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.850833</v>
+        <v>1.039391333333333</v>
       </c>
       <c r="N10">
-        <v>5.552499000000001</v>
+        <v>3.118174</v>
       </c>
       <c r="O10">
-        <v>0.5044636752926867</v>
+        <v>0.7487356486335016</v>
       </c>
       <c r="P10">
-        <v>0.5044636752926867</v>
+        <v>0.7487356486335016</v>
       </c>
       <c r="Q10">
-        <v>1.878211138680334</v>
+        <v>1.254278908688222</v>
       </c>
       <c r="R10">
-        <v>16.903900248123</v>
+        <v>11.288510178194</v>
       </c>
       <c r="S10">
-        <v>0.01707804406725058</v>
+        <v>0.03916155382670188</v>
       </c>
       <c r="T10">
-        <v>0.01707804406725057</v>
+        <v>0.03916155382670189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>20.201379</v>
+        <v>13.79790933333333</v>
       </c>
       <c r="H11">
-        <v>60.60413699999999</v>
+        <v>41.393728</v>
       </c>
       <c r="I11">
-        <v>0.673925778926067</v>
+        <v>0.5980392148364168</v>
       </c>
       <c r="J11">
-        <v>0.6739257789260669</v>
+        <v>0.5980392148364169</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.594046</v>
+        <v>0.1247706666666667</v>
       </c>
       <c r="N11">
-        <v>4.782138000000001</v>
+        <v>0.374312</v>
       </c>
       <c r="O11">
-        <v>0.4344737227754238</v>
+        <v>0.08987976235813114</v>
       </c>
       <c r="P11">
-        <v>0.4344737227754238</v>
+        <v>0.08987976235813115</v>
       </c>
       <c r="Q11">
-        <v>32.201927389434</v>
+        <v>1.721574346126222</v>
       </c>
       <c r="R11">
-        <v>289.817346504906</v>
+        <v>15.494169115136</v>
       </c>
       <c r="S11">
-        <v>0.2928030420443356</v>
+        <v>0.05375162251034047</v>
       </c>
       <c r="T11">
-        <v>0.2928030420443355</v>
+        <v>0.05375162251034049</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.201379</v>
+        <v>13.79790933333333</v>
       </c>
       <c r="H12">
-        <v>60.60413699999999</v>
+        <v>41.393728</v>
       </c>
       <c r="I12">
-        <v>0.673925778926067</v>
+        <v>0.5980392148364168</v>
       </c>
       <c r="J12">
-        <v>0.6739257789260669</v>
+        <v>0.5980392148364169</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.6721</v>
       </c>
       <c r="O12">
-        <v>0.06106260193188952</v>
+        <v>0.1613845890083672</v>
       </c>
       <c r="P12">
-        <v>0.06106260193188953</v>
+        <v>0.1613845890083672</v>
       </c>
       <c r="Q12">
-        <v>4.5257822753</v>
+        <v>3.091191620977777</v>
       </c>
       <c r="R12">
-        <v>40.7320404777</v>
+        <v>27.8207245888</v>
       </c>
       <c r="S12">
-        <v>0.04115166157020101</v>
+        <v>0.09651431289726174</v>
       </c>
       <c r="T12">
-        <v>0.04115166157020101</v>
+        <v>0.09651431289726177</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.201379</v>
+        <v>13.79790933333333</v>
       </c>
       <c r="H13">
-        <v>60.60413699999999</v>
+        <v>41.393728</v>
       </c>
       <c r="I13">
-        <v>0.673925778926067</v>
+        <v>0.5980392148364168</v>
       </c>
       <c r="J13">
-        <v>0.6739257789260669</v>
+        <v>0.5980392148364169</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.850833</v>
+        <v>1.039391333333333</v>
       </c>
       <c r="N13">
-        <v>5.552499000000001</v>
+        <v>3.118174</v>
       </c>
       <c r="O13">
-        <v>0.5044636752926867</v>
+        <v>0.7487356486335016</v>
       </c>
       <c r="P13">
-        <v>0.5044636752926867</v>
+        <v>0.7487356486335016</v>
       </c>
       <c r="Q13">
-        <v>37.38937889870701</v>
+        <v>14.34142737918578</v>
       </c>
       <c r="R13">
-        <v>336.504410088363</v>
+        <v>129.072846412672</v>
       </c>
       <c r="S13">
-        <v>0.3399710753115304</v>
+        <v>0.4477732794288145</v>
       </c>
       <c r="T13">
-        <v>0.3399710753115303</v>
+        <v>0.4477732794288146</v>
       </c>
     </row>
   </sheetData>
